--- a/data ĐỒ ÁN 1/data Sách thư viện.xlsx
+++ b/data ĐỒ ÁN 1/data Sách thư viện.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tran Quoc Dai\Desktop\DoAn1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\DoAn1\data ĐỒ ÁN 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F343978B-5FE0-446A-B2AE-2724C5570A72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
   <si>
     <t>Tên sách</t>
   </si>
@@ -46,13 +45,595 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>Ảnh</t>
+  </si>
+  <si>
+    <t>Đọc Vị Bất Kì Ai</t>
+  </si>
+  <si>
+    <t>ĐỌC VỊ BẤT KỲ AI là cẩm nang dạy bạn cách thâm nhập vào tâm trí của người khác để biết điều người ta đang nghĩ. Cuốn sách này sẽ không giúp bạn rút ra các kết luận chung về một ai đó dựa vào cảm tính hay sự võ đoán</t>
+  </si>
+  <si>
+    <t>David J.Lieberman</t>
+  </si>
+  <si>
+    <t>Tâm Lý - Kỹ Năng sống</t>
+  </si>
+  <si>
+    <t>Thái Hà</t>
+  </si>
+  <si>
+    <t>Sức Mạnh Của Tiềm Lực</t>
+  </si>
+  <si>
+    <t>Joseph Murphy, Ph.D., D.D</t>
+  </si>
+  <si>
+    <t>Nghệ thuật sống</t>
+  </si>
+  <si>
+    <t>NXB Tổng hợp thành phố HCM</t>
+  </si>
+  <si>
+    <t>Sức mạnh tiềm thức là cuốn sách về nghệ thuật sống đã truyền cảm hứng cho hàng triệu người trên thế giới giúp họ thay đổi cuộc đời. Cuốn sách đem đến cái nhìn mới về việc thay đổi suy nghĩ và tiềm thức đúng đắn sẽ khiến bạn thành công hơn rất nhiều.</t>
+  </si>
+  <si>
+    <t>Lược Sử Thời Gian</t>
+  </si>
+  <si>
+    <t>Cuộc Đời Và Vũ Trụ</t>
+  </si>
+  <si>
+    <t>Cuốn sách khai thác và công bố những tư liệu mới nhất về Einstein, làm rõ những giai đoạn, sự kiện và vấn đề trong cuộc sống cá nhân của Einstein</t>
+  </si>
+  <si>
+    <t> Lược sử thời gian được xem là cuốn sách nổi tiếng và phổ biến nhất về vũ trụ học của Stephen Hawking, liên tục được nằm trong danh mục sách bán chạy nhất của các tạp chí nổi tiếng thế giới.Lược sử thời gian là cuốn sử thi về sự ra đời, sự hình thành và phát triển của vũ trụ</t>
+  </si>
+  <si>
+    <t>StenPhen W. HawKing</t>
+  </si>
+  <si>
+    <t>Khoa Học - Kỹ Thuật</t>
+  </si>
+  <si>
+    <t>Chiến Thắng Con Quỷ Trong Bạn</t>
+  </si>
+  <si>
+    <t>Napoleon Hill</t>
+  </si>
+  <si>
+    <t>Cuốn sách là cuộc trò chuyện của Napoleon Hill và Con Quỷ. Sau bao nhiêu năm miệt mài nghiên cứu cuối cùng ông cũng phát hiện ra Con Quỷ, bắt nó phải thú tội và tiết lộ những sự thật kinh hoàng về nơi nó sống, cách nó kiểm soát tâm trí con người và cách để con người chiến thắng được nó</t>
+  </si>
+  <si>
+    <t>Thing And Grow Rich</t>
+  </si>
+  <si>
+    <t>13 Nguyên Tắc Nghĩ Giàu Làm Giàu là cuốn sách “chỉ dẫn” duy nhất chỉ ra những nguồn lực bạn phải có để thành công. Cuốn sách sẽ giúp bạn trở nên giàu có, làm giàu thêm cho cuộc sống của bạn trên tất cả các phương diện của cuộc sống chứ không chỉ về tài chính và vật chất.</t>
+  </si>
+  <si>
+    <t>Kỹ Năng làm việc</t>
+  </si>
+  <si>
+    <t>Kỹ  Năng làm việc</t>
+  </si>
+  <si>
+    <t>1980 Books</t>
+  </si>
+  <si>
+    <t>Kanbe – nhân vật chính trong cuốn sách, vào những năm cuối tuổi 20 của cuộc đời, một ngày cô chợt nhận ra, trong khi các bạn cùng trang lứa với cô đã và đang gặt hái nhiều thành thì bản thân cô đang dần chững lại trong sự nghiệp</t>
+  </si>
+  <si>
+    <t>Tư Duy Logic</t>
+  </si>
+  <si>
+    <t>Minorikanbe</t>
+  </si>
+  <si>
+    <t>Nhiệm Vụ Triệu Đô</t>
+  </si>
+  <si>
+    <t>Han Kok Kwang</t>
+  </si>
+  <si>
+    <t>NXB Thanh Niên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Nhiệm Vụ Triệu Đô” cung cấp cho độc giả một bản kế hoạch chi tiết, hỗ trợ các bạn trẻ tự lập trong cuộc sống của chính mình, sẵn sàng đối mặt và giải quyết mọi khó khăn, thay đổi trong công việc và cả trong cuộc sống. </t>
+  </si>
+  <si>
+    <t>Đừng Chạy Theo Số Đông</t>
+  </si>
+  <si>
+    <t>Sách Tư Duy -Kỹ Năng Sống</t>
+  </si>
+  <si>
+    <t>ạn làm theo một cách vô thức. Có một sức hút vô hình từ xã hội, số đông khiến bạn mất kiểm soát nhưng vẫn nghĩ mình đang kiểm soát. “Nó” hút bạn theo con đường mà “nó” chọn cho bạn. “Nó” âm thầm thuyết phục bạn đó là “đam mê” thật sự của bạn. “Mục đích sống” thực sự của bạn. Hoặc nếu không, nếu bạn cưỡng lại, nghi ngờ, “nó” thuyết phục bạn hãy “kiên trì” theo nó. Hứa hẹn với bạn một tương lai tốt đẹp màu hồng vào một ngày nào đó.</t>
+  </si>
+  <si>
+    <t>Kiên Trần</t>
+  </si>
+  <si>
+    <t>Trí tuệ Do Thái là một cuốn sách tư duy đầy tham vọng trong việc nâng cao khả năng tự học tập, ghi nhớ và phân tích - những điều đã khiến người Do Thái vượt trội lên, chiếm lĩnh những vị trí quan trọng trong ngành truyền thông, ngân hàng và những giải thưởng sáng tạo trên thế giới. </t>
+  </si>
+  <si>
+    <t>Trí Tuệ Do Thái</t>
+  </si>
+  <si>
+    <t>NXB Lao Đọng Xã Hội</t>
+  </si>
+  <si>
+    <t>Eran Katz</t>
+  </si>
+  <si>
+    <t>Càng Kỹ Luật Càng Tự Do</t>
+  </si>
+  <si>
+    <t>Ca Tây</t>
+  </si>
+  <si>
+    <t>NXB Thế Giới</t>
+  </si>
+  <si>
+    <t>KỶ LUẬT vốn là ván cờ bạn phải tự đấu với chính mình. Thắng - bạn sẽ có được “bản năng của người mạnh mẽ nhất”, đó là sự tự kiểm soát bản thân. Thua - bạn mãi sống trong cảm giác tạm bợ, nuối tiếc. Càng dễ dàng dung túng cho những thói quen trì hoãn bao nhiêu, cuộc sống của bạn sẽ đi càng nhanh tới sự mất kiểm soát và thiếu quy hoạch bấy nhiêu.</t>
+  </si>
+  <si>
+    <t>How Psychology Works</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hemmings</t>
+    </r>
+  </si>
+  <si>
+    <t>MỘT TRONG NHỮNG CUỐN SÁCH MỞ KHÓA HỮU ÍCH NHẤT VỀ TƯ DUY, KÝ ỨC VÀ CẢM XÚC CỦA CON NGƯỜI!</t>
+  </si>
+  <si>
+    <t>Thuật Đọc Tâm</t>
+  </si>
+  <si>
+    <t>Nhiều Tác Giả</t>
+  </si>
+  <si>
+    <t>Alphabooks</t>
+  </si>
+  <si>
+    <t>Cuốn sách là một cẩm nang hướng dẫn chi tiết về việc sử dụng trí tuệ Enneagram cho sự phát triển của tâm linh và tâm lý.</t>
+  </si>
+  <si>
+    <t>Não Bộ Kể Gì Về Bạn</t>
+  </si>
+  <si>
+    <t>David Eagleman</t>
+  </si>
+  <si>
+    <t>Não bộ – cơ quan quan trọng nhất trong cơ thể người - bộ sưu tập tế bào phức tạp nhất trong vũ trụ – khối chất như gel nặng 1,2kg được bảo vệ cẩn thận trong hộp sọ vững chắc – chính là thứ quyết định việc loài người thống trị thế giới tự nhiên. Nhưng bạn biết gì về khối chất tuyệt diệu này? Và nó kể gì về chính bạn? Cuốn sách khoa học thường thức của David Eagleman sẽ giải đáp tất cả.</t>
+  </si>
+  <si>
+    <t>Đi Tìm Lẽ Sống</t>
+  </si>
+  <si>
+    <t>Viktor Emil Frank</t>
+  </si>
+  <si>
+    <t>Đi tìm lẽ sống của Viktor Frankl là một trong những quyển sách kinh điển của thời đại. Thông thường, nếu một quyển sách chỉ có một đoạn văn, một ý tưởng có sức mạnh thay đổi cuộc sống của một người, thì chỉ riêng điều đó cũng đã đủ để chúng ta đọc đi đọc lại và dành cho nó một chỗ trên kệ sách của mình. Quyển sách này có nhiều đoạn văn như thế.</t>
+  </si>
+  <si>
+    <t>Trò Chuyện Với Thượng Đế</t>
+  </si>
+  <si>
+    <t>Mitsuro Sato</t>
+  </si>
+  <si>
+    <t>Điều bình thường với ngươi lại là điều bất thường với người khác”</t>
+  </si>
+  <si>
+    <t>Hành Trình Về Phương Đông</t>
+  </si>
+  <si>
+    <t>Nguyên Phong</t>
+  </si>
+  <si>
+    <t>Hành Trình Về Phương Đông mở ra một chân trời mới về Đông Tây gặp nhau, để khoa học Minh triết hội ngộ, để Hiện đại Cổ xưa giao duyên, để Đất Trời là một. Thế giới, vì vậy đã trở nên hài hòa hơn, rộng mở, diệu kỳ hơn và, do đó, nhân văn hơn.</t>
+  </si>
+  <si>
+    <t>Triết Lý Cuộc Đời</t>
+  </si>
+  <si>
+    <t>Jim Rohn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đây như một món quà mà Jim Rohn muốn gửi tặng đến độc giả, người thân, bạn bè, những người luôn theo dõi, động viên, ủng hộ ông trong mỗi bước của sự nghiệp</t>
+  </si>
+  <si>
+    <t>Đời Ngắn Đừng Ngủ Dài</t>
+  </si>
+  <si>
+    <t>Robin Sharma</t>
+  </si>
+  <si>
+    <t>NXB Trẻ</t>
+  </si>
+  <si>
+    <t>“Mọi lựa chọn đều giá trị. Mọi bước đi đều quan trọng. Cuộc sống vẫn diễn ra theo cách của nó, không phải theo cách của ta. Hãy kiên nhẫn. Tin tưởng. Hãy giống như người thợ cắt đá, đều đặn từng nhịp, ngày qua ngày. Cuối cùng, một nhát cắt duy nhất sẽ phá vỡ tảng đá và lộ ra viên kim cương. Người tràn đầy nhiệt huyết và tận tâm với việc mình làm không bao giờ bị chối bỏ. Sự thật là thế.”</t>
+  </si>
+  <si>
+    <t>3 Người Thầy Vĩ Đại</t>
+  </si>
+  <si>
+    <t>“Tôi đã nếm trải nhiều thất bại trong hành trình đi qua những tháng ngày của mình. Thế nhưng, mỗi chướng ngại cuối cùng đều lại chính là một bàn đạp đưa tôi gần hơn nữa tới chân lý trong tâm khảm và cuộc đời tốt đẹp nhất của mình.</t>
+  </si>
+  <si>
+    <t>Đừng Lựa Chọn An Nhàn Khi Còn Trẻ</t>
+  </si>
+  <si>
+    <t>Miêu Công Trử, Canh Thiên</t>
+  </si>
+  <si>
+    <t>Trong độ xuân xanh phơi phới ngày ấy, bạn không dám mạo hiểm, không dám nỗ lực để kiếm học bổng, không chịu tìm tòi những thử thách trong công việc, không phấn đấu hướng đến ước mơ của mình. Bạn mơ mộng rằng làm việc xong sẽ vào làm ở một công ty nổi tiếng, làm một thời gian sẽ thăng quan tiến chức. </t>
+  </si>
+  <si>
+    <t>Giải Thích Ngữ Pháp Tiếng Anh</t>
+  </si>
+  <si>
+    <t>Mai Lan Hương, Hà Thanh Uyên</t>
+  </si>
+  <si>
+    <t>Nhà Xuất Bản Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Trong lần tái bản GIẢI THÍCH NGỮ PHÁP TIẾNG ANH năm 2020 này, nhằm nâng cao chất lượng sách và giúp người học trau dồi, củng cố và nâng cao kiến thức ngữ pháp tiếng Anh, chúng tôi chỉnh sửa, bổ sung và cập nhật một số kiến thức ngữ pháp mới.</t>
+  </si>
+  <si>
+    <t>Tưự Học 2000 Từ Vựng Tiếng Anh Theo Chủ Đề</t>
+  </si>
+  <si>
+    <t>The Windy</t>
+  </si>
+  <si>
+    <t>NXB Đại Học Quốc Gia Hà Nội</t>
+  </si>
+  <si>
+    <t>Nghe nói đọc viết là 4 kĩ năng quan trọng để có thể học và sử dụng tốt tiếng Anh - ngôn ngữ toàn cầu. Tuy nhiên không phải ai cũng có thể thành thạo những kĩ năng này. Nghe hiểu là một trong những kĩ năng đòi hỏi sự tập trung và rèn luyện của người học.</t>
+  </si>
+  <si>
+    <t>Cẩm Nang Cấu Trúc Tiếng Anh</t>
+  </si>
+  <si>
+    <t>Trang Anh</t>
+  </si>
+  <si>
+    <t>Sách Học Tiếng Anh</t>
+  </si>
+  <si>
+    <t>NXB Đại Học Sư Phạm</t>
+  </si>
+  <si>
+    <t>Cuốn sách CẨM NANG CẤU TRÚC TIẾNG ANH gồm 25 phần, mỗi phần là một phạm trù kiến thức trong tiếng Anh được trình bày một cách ngắn gọn, đơn giản, cô đọng và hệ thống hoá dưới dạng sơ đồ, bảng biểu nhằm phát triển khả năng tư duy của người học và từ đó giúp người học nhớ kiến thức nhanh hơn và sâu hơn</t>
+  </si>
+  <si>
+    <t>Tiếng Anh Cơ Bản 1</t>
+  </si>
+  <si>
+    <t>Tiếng Anh Cơ bản 2</t>
+  </si>
+  <si>
+    <t>Bạn bị mất nền tảng Tiếng Anh nhưng không biết bắt đầu học lại như thế nào ?</t>
+  </si>
+  <si>
+    <t>Ứng Dụng Siêu Trí Tuệ 6000 Từ DỰng Thông Dụng Nhất</t>
+  </si>
+  <si>
+    <t>NXBHồng Đức</t>
+  </si>
+  <si>
+    <t>Cuốn sách tập trung vào 6000 từ vựng thông dụng nhất được sử dụng nhiều nhất trong giao tiếp cuộc sống hằng ngày và các bài thi.</t>
+  </si>
+  <si>
+    <t>Tự Học Viết Luận Tiếng Anh Cho Người Mới Bắt Đầu</t>
+  </si>
+  <si>
+    <t>Dương Hương</t>
+  </si>
+  <si>
+    <r>
+      <t>Tự Học Viết Luận Tiếng Anh Cơ Bản Cho Người Mới Bắt Đầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> là cuốn sách tổng hợp các bài viết theo các chủ đề phổ biến thường gặp trong bài thi viết tiếng Anh. Cuốn sách hỗ trợ học sinh THPT những kĩ năng viết bài tiếng Anh đủ ý, chuẩn cấu trúc; gợi ý và giới thiệu những câu/cấu trúc “đắt” nên sử dụng trong bài viết để đạt điểm cao.</t>
+    </r>
+  </si>
+  <si>
+    <t>Traần Mạnh Tường</t>
+  </si>
+  <si>
+    <t>Giải Thích Ngữ Pháp Tiếng Anh English Grammar</t>
+  </si>
+  <si>
+    <t>Nhà sách Minh Thắng</t>
+  </si>
+  <si>
+    <r>
+      <t>Quyển sách </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Langmaster - Giải Thích Ngữ Pháp Tiếng Anh English Grammar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sẽ là tài liệu tham khảo hữu ích giúp những người học tiếng Anh nắm vững hơn về các chủ điểm ngữ pháp.</t>
+    </r>
+  </si>
+  <si>
+    <t>Luyện Thi TOEIC 850 Listnning</t>
+  </si>
+  <si>
+    <t>Jo Gang-Soo </t>
+  </si>
+  <si>
+    <t>Trọng tâm của cuốn sách là những ví dụ thiết thực và hệ thống bài tập đa dạng, bám sát các dạng đề thi thật. Ứng với mỗi kiểu câu hỏi nghe, tác giả đều đưa ra nhận định khái quát về kiểu câu hỏi này (chủ đề thường gặp, xu hướng câu hỏi). Sau đó là những phân tích cụ thể, kèm theo các tips và bài vận dụng thực hành. Sau mỗi chương đều có Bài tập thực hành, cuối mỗi phần đều có bài Full Test hoàn chỉnh.</t>
+  </si>
+  <si>
+    <t>IELTS Special Journal là ấn phẩm được đội ngũ chuyên gia luyện thi IELTS tại Anh Ngữ ZIM biên soạn với mục đích giúp người học có cái nhìn cận cảnh hơn về độ khó của đề thi kỹ năng Nói và Viết cũng như cung cấp nhiều phương án xử lý các đề thi cụ thể qua việc phân tích đề và lập dàn ý. Nội dung chính của sách bao gồm:</t>
+  </si>
+  <si>
+    <t>EILTS Special Journal 1</t>
+  </si>
+  <si>
+    <t>EILTS Special Journal 2</t>
+  </si>
+  <si>
+    <t>Ngữ Pháp Tiếng Anh Trình Độ Sơ Cấp</t>
+  </si>
+  <si>
+    <t>Bennis Le Boeuf, Liming Jing, Alex Rath, PH.D</t>
+  </si>
+  <si>
+    <t>Bộ sách này bao gồm bốn quyển được chia thành hai cấp độ: sơ cấp và trung cấp. Sách thích hợp để làm giáo trình dạy trên lớp đồng thời cũng rất hữu dụng cho người có nhu cầu tự học</t>
+  </si>
+  <si>
+    <t>The Pperfect EngLish Grammar Work Book</t>
+  </si>
+  <si>
+    <t>Lisa Mclendon</t>
+  </si>
+  <si>
+    <t>Quyển sách này không bao quát hết tất cả các điểm ngữ pháp trong tiếng Anh, mà bao gồm những câu hỏi mà tôi thấy nhà văn, người đọc diễn văn và người học ngôn ngữ ở mọi độ tuổi và trình độ thường thắc mắc. Nó cũng bao gồm những điểm rất đáng ngạc nhiên mà tôi bắt gặp khi mới bắt đầu tự tìm tòi cách thức diễn đạt tốt hơn.</t>
+  </si>
+  <si>
+    <t>NXB Đà Nẵng</t>
+  </si>
+  <si>
+    <t>ABC TOEIC LC</t>
+  </si>
+  <si>
+    <t>Lee-Soo-Yong</t>
+  </si>
+  <si>
+    <r>
+      <t>ABC TOEIC Listening Comprehension and ABC TOEIC Reading Comprehension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> have been written for beginners whose ultimate aim is to take the TOEIC test.</t>
+    </r>
+  </si>
+  <si>
+    <t>Stephen King IT</t>
+  </si>
+  <si>
+    <t>Stephen King</t>
+  </si>
+  <si>
+    <t>Giáo Trình</t>
+  </si>
+  <si>
+    <t>It is a group of children who see - and feel - what makes Derry so horribly different. In the storm drains, in the sewers, IT lurks, taking on the shape of every nightmare, each one's deepest dread. Sometimes is appears as an evil clown named Pennywise and sometimes IT reaches up, seizing, tearing, killing . . .</t>
+  </si>
+  <si>
+    <t>Hachette Book Group</t>
+  </si>
+  <si>
+    <t>Phython Cơ Bản</t>
+  </si>
+  <si>
+    <t>Bùi Việt Hà</t>
+  </si>
+  <si>
+    <t>Hiện nay ngôn ngữ lập trình bậc cao Python đang nổi lên như một ngôn ngữ lập trình được sử dụng NHIỀU NHẤT trên thế giới. Điều này được giải thích bằng các lý do sau:</t>
+  </si>
+  <si>
+    <t>Cấu Trúc Dữ Liệu và Thuật Toán</t>
+  </si>
+  <si>
+    <t>PGS,TS. Hoàng Nghĩa Tý</t>
+  </si>
+  <si>
+    <t>NXB Xây Dựng</t>
+  </si>
+  <si>
+    <t>Cuốn sách Cấu trúc dữ liệu và thuật toán được biên soạn dựa trên nội dung các bài giảng mà tác giả sử dụng để giảng dạy cho sinh viên ngành Công nghệ Thông tin, Đại học Bách Khoa Hà Nội.</t>
+  </si>
+  <si>
+    <t>Code Dạo Kí Sự - Lập Trình Viên Đâu Chỉ Biết Code</t>
+  </si>
+  <si>
+    <t>Phạm Huy Hoàng</t>
+  </si>
+  <si>
+    <t>Tri Thức Trẻ</t>
+  </si>
+  <si>
+    <t>Về tác giả của blog Tôi đi code dạo, anh tên thật là Phạm Huy Hoàng, một Developer Full Stack, cựu sinh viên trường FPT University, hiện tại anh đang học Thạc sĩ Computer Science tại Đại học Lancaster ở Anh (học bổng $18000). Trước khi qua Xứ Sở Sương Mù, anh đã từng làm việc tại FPT Software và ASWIG Solutions.</t>
+  </si>
+  <si>
+    <t>Hello World - Làm Việc Trên Kỹ Nguyên Máy</t>
+  </si>
+  <si>
+    <t>Hannah Fry</t>
+  </si>
+  <si>
+    <t>Nhà Xuất Bản Dân Trí</t>
+  </si>
+  <si>
+    <t>“Hello World” là một đoạn mang tính nghi thức của những người học lập trình, nhiệm vụ đầu tiên của một người mới học là lập trình sao cho máy tính hiện ra cụm từ này. Nhưng đồng thời nó cũng là một lời nhắc nhở về thời khắc của cuộc đối thoại giữa con người và máy tính trong kỷ nguyên máy móc, đánh dấu sự khởi đầu của một mối quan hệ mà một bên không thể tồn tại nếu thiếu bên kia.</t>
+  </si>
+  <si>
+    <t>Giáo Trình C++ và Lập Trình Hướng Đối Tượng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Ất, Lê Trường Thông</t>
+  </si>
+  <si>
+    <t>“Giáo trình C++ &amp; lập trình hướng đối tượng” trình bày một cách hệ thống các khái niệm của lập trình hướng đối tượng được cài đặt trong C++ như lớp, đối tượng, sự thừa kế, tính tương ứng bội và các khả năng mới trong xây dựng, sử dụng hàm như đối tham chiếu, đối mặc định, hàm trùng tên, hàm toán tử. “Giáo trình C++ &amp; lập trình hướng đối tượng” gồm 13 chương và 5 phụ lục được trình bày khá khoa học.</t>
+  </si>
+  <si>
+    <t>HacKer Lược Sở</t>
+  </si>
+  <si>
+    <t>Gián Điệp Mạng</t>
+  </si>
+  <si>
+    <t>Nghệ Thuật Ẩn Mình</t>
+  </si>
+  <si>
+    <t>Bóng Ma Trên Mạng</t>
+  </si>
+  <si>
+    <t>BÓNG MA TRÊN MẠNG Cuộc Phiêu Lưu Của Gã Hacker Bị Truy Nã Gắt Gao Nhất Thế Giới</t>
+  </si>
+  <si>
+    <t>NGHỆ THUẬT ẨN MÌNH Bảo Mật Cá Nhân Trong Kỷ Nguyên Dữ Liệu Lớn</t>
+  </si>
+  <si>
+    <t>HACKER LƯỢC SỬ Những Chiến Công Của Các Tin Tặc Thời Kỳ Đầu Trong Cuộc Cách Mạng Máy Tính</t>
+  </si>
+  <si>
+    <t>GIÁN ĐIỆP MẠNG Cuộc Rượt Đuổi Ngoạn Mục Trong Mê Lộ Máy Tính</t>
+  </si>
+  <si>
+    <t>An Toàn Dữ Liệu</t>
+  </si>
+  <si>
+    <t>Nhu cầu sử dụng mật mã đã xuất hiện từ rất sớm, ngay khi con người biết trao đổi và truyền thông tin cho nhau dưới hình thức ngôn ngữ, chữ viết. Các hình thức mật mã sơ khai đã được tìm thấy từ khoảng bốn nghìn năm trước trong nền văn minh Ai Cập cổ đại. Trải qua quá trình phát triển, mật mã đã được sử dụng rộng rãi trên khắp thế giới để giữ bí mật cho việc giao lưu thông tin trong nhiều lĩnh vực như quân sự, chính trị, ngoại giao.</t>
+  </si>
+  <si>
+    <t>TS. Lê Đắc Nhường</t>
+  </si>
+  <si>
+    <t>Huy Hoàng Bookstore</t>
+  </si>
+  <si>
+    <t>Giáo Trình C  Căn bản và Nâng Cao</t>
+  </si>
+  <si>
+    <t>Giáo trình kỹ thuật lập trình C căn bản và nâng cao được hình thành qua nhiều năm giảng dạy của các tác giả. Ngôn ngữ lập trình C là một môn học cơ sở trong chương trình đào tạo kỹ sư, cử nhân tin học của nhiều trường đại học. Ở đây sinh viên được trang bị những kiến thức cơ bản nhất về lập trình, các kỹ thuật tổ chức dữ liệu và lập trình căn bản với ngôn ngữ C.</t>
+  </si>
+  <si>
+    <t>JAVA Hướng Dẫn Cho Người Mới Học Tập 1 : OOP</t>
+  </si>
+  <si>
+    <t>HerBert Schildt</t>
+  </si>
+  <si>
+    <t>Trường Đại Học FPT</t>
+  </si>
+  <si>
+    <t>Cuốn sách bắt đầu với những kiến thức cơ bản như hướng dẫn cách biên dịch, các từ khóa, tính năng và những thành phần chính tạo nên ngôn ngữ java. Sau đó bạn sẽ được tìm hiểu những nội dung cốt yếu về lập trình hướng đối tượng, được minh họa bằng các chương trình Java ngắn gọn và sinh động. </t>
+  </si>
+  <si>
+    <t>JAVA Hướng Dẫn Cho Người Mới Học Tập 2: Lập Trình JAVA</t>
+  </si>
+  <si>
+    <t>Cuốn sách này tiếp tục hướng dẫn về các tính năng quan trọng và những thành phần chính tạo nên ngôn ngữ Java như cách làm việc với gói (package), chế độ bảo vệ truy cập thành viên trong gói, lập trình đa luồng (multithreaded programming) và generic. Kế thúc cuốn sách là phần giới thiệu về Swing. Hãy tìm hiểu sâu về lập trình trong Java, một lĩnh vực kiến thức không thể thiếu với các lập trình viên chuyên nghiệp, từ các bài học được xây dựng để phát huy tối đa khả năng tự học ở cuốn sách này.</t>
+  </si>
+  <si>
+    <t>C# Dành Cho Người Bắt Đầu</t>
+  </si>
+  <si>
+    <t>Phạm Quang Huy, Phạm Quang Hiển</t>
+  </si>
+  <si>
+    <t>Cuốn sách là tài liệu cần thiết cho sinh viên ,các kỹ thuật viên chuyên ngành tin hoc. Để thuận lợi cho người học, phần code lập trình.</t>
+  </si>
+  <si>
+    <t>GV. Nguyễn Đức Việt</t>
+  </si>
+  <si>
+    <t>Lập trình web front-end cơ bản với Bootstrap 4, Jquery, CSS3, HTML5</t>
+  </si>
+  <si>
+    <t> Các bạn muốn học lập trình web bài bản từ đầu bắt buộc phải biết về khóa học này . Các lập trình viên hệ thống muốn học về lập trình web front-end để trở thành lập trình viên FullStack..</t>
+  </si>
+  <si>
+    <t>Truyện đọc Pháp - Harry Potter - Tome 3 - Harry Potter Et Le Prisonnier</t>
+  </si>
+  <si>
+    <t>JKRowLing</t>
+  </si>
+  <si>
+    <t>Truyện Tranh</t>
+  </si>
+  <si>
+    <t>Hachette</t>
+  </si>
+  <si>
+    <t>hẳn không còn xa lạ gì với bạn đọc toàn thế giới. Trường học phù thuỷ nhiệm màu, các phép thuật kì ảo, những chuyến phiêu lưu tuyệt vời cùng vô số những điều thú vị đã đưa Harry Potter trở thành loạt truyện bán chạy nhất thế giới.</t>
+  </si>
+  <si>
+    <t>Truyện đọc Pháp - Harry Potter - Tome 2 - Harry Potter Et La Chambre Des Secrets</t>
+  </si>
+  <si>
+    <t>Truyện đọc Pháp - Harry Potter - Tome 1 - Harry Potter à l'école des sorciers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +647,59 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -106,18 +740,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,25 +1054,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:CV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="7" max="7" width="77.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -431,120 +1091,1782 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>16</v>
+      </c>
+      <c r="Q5">
+        <v>17</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>19</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>21</v>
+      </c>
+      <c r="V5">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <v>23</v>
+      </c>
+      <c r="X5">
+        <v>24</v>
+      </c>
+      <c r="Y5">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>26</v>
+      </c>
+      <c r="AA5">
+        <v>27</v>
+      </c>
+      <c r="AB5">
+        <v>28</v>
+      </c>
+      <c r="AC5">
+        <v>29</v>
+      </c>
+      <c r="AD5">
+        <v>30</v>
+      </c>
+      <c r="AE5">
+        <v>31</v>
+      </c>
+      <c r="AF5">
+        <v>32</v>
+      </c>
+      <c r="AG5">
+        <v>33</v>
+      </c>
+      <c r="AH5">
+        <v>34</v>
+      </c>
+      <c r="AI5">
+        <v>35</v>
+      </c>
+      <c r="AJ5">
+        <v>36</v>
+      </c>
+      <c r="AK5">
+        <v>37</v>
+      </c>
+      <c r="AL5">
+        <v>38</v>
+      </c>
+      <c r="AM5">
+        <v>39</v>
+      </c>
+      <c r="AN5">
+        <v>40</v>
+      </c>
+      <c r="AO5">
+        <v>41</v>
+      </c>
+      <c r="AP5">
+        <v>42</v>
+      </c>
+      <c r="AQ5">
+        <v>43</v>
+      </c>
+      <c r="AR5">
+        <v>44</v>
+      </c>
+      <c r="AS5">
+        <v>45</v>
+      </c>
+      <c r="AT5">
+        <v>46</v>
+      </c>
+      <c r="AU5">
+        <v>47</v>
+      </c>
+      <c r="AV5">
+        <v>48</v>
+      </c>
+      <c r="AW5">
+        <v>49</v>
+      </c>
+      <c r="AX5">
+        <v>50</v>
+      </c>
+      <c r="AY5">
+        <v>51</v>
+      </c>
+      <c r="AZ5">
+        <v>52</v>
+      </c>
+      <c r="BA5">
+        <v>53</v>
+      </c>
+      <c r="BB5">
+        <v>54</v>
+      </c>
+      <c r="BC5">
+        <v>55</v>
+      </c>
+      <c r="BD5">
+        <v>56</v>
+      </c>
+      <c r="BE5">
+        <v>57</v>
+      </c>
+      <c r="BF5">
+        <v>58</v>
+      </c>
+      <c r="BG5">
+        <v>59</v>
+      </c>
+      <c r="BH5">
+        <v>60</v>
+      </c>
+      <c r="BI5">
+        <v>61</v>
+      </c>
+      <c r="BJ5">
+        <v>62</v>
+      </c>
+      <c r="BK5">
+        <v>63</v>
+      </c>
+      <c r="BL5">
+        <v>64</v>
+      </c>
+      <c r="BM5">
+        <v>65</v>
+      </c>
+      <c r="BN5">
+        <v>66</v>
+      </c>
+      <c r="BO5">
+        <v>67</v>
+      </c>
+      <c r="BP5">
+        <v>68</v>
+      </c>
+      <c r="BQ5">
+        <v>69</v>
+      </c>
+      <c r="BR5">
+        <v>70</v>
+      </c>
+      <c r="BS5">
+        <v>71</v>
+      </c>
+      <c r="BT5">
+        <v>72</v>
+      </c>
+      <c r="BU5">
+        <v>73</v>
+      </c>
+      <c r="BV5">
+        <v>74</v>
+      </c>
+      <c r="BW5">
+        <v>75</v>
+      </c>
+      <c r="BX5">
+        <v>76</v>
+      </c>
+      <c r="BY5">
+        <v>77</v>
+      </c>
+      <c r="BZ5">
+        <v>78</v>
+      </c>
+      <c r="CA5">
+        <v>79</v>
+      </c>
+      <c r="CB5">
+        <v>80</v>
+      </c>
+      <c r="CC5">
+        <v>81</v>
+      </c>
+      <c r="CD5">
+        <v>82</v>
+      </c>
+      <c r="CE5">
+        <v>83</v>
+      </c>
+      <c r="CF5">
+        <v>84</v>
+      </c>
+      <c r="CG5">
+        <v>85</v>
+      </c>
+      <c r="CH5">
+        <v>86</v>
+      </c>
+      <c r="CI5">
+        <v>87</v>
+      </c>
+      <c r="CJ5">
+        <v>88</v>
+      </c>
+      <c r="CK5">
+        <v>89</v>
+      </c>
+      <c r="CL5">
+        <v>90</v>
+      </c>
+      <c r="CM5">
+        <v>91</v>
+      </c>
+      <c r="CN5">
+        <v>92</v>
+      </c>
+      <c r="CO5">
+        <v>93</v>
+      </c>
+      <c r="CP5">
+        <v>94</v>
+      </c>
+      <c r="CQ5">
+        <v>95</v>
+      </c>
+      <c r="CR5">
+        <v>96</v>
+      </c>
+      <c r="CS5">
+        <v>97</v>
+      </c>
+      <c r="CT5">
+        <v>98</v>
+      </c>
+      <c r="CU5">
+        <v>99</v>
+      </c>
+      <c r="CV5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2019</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>2017</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2017</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>2018</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>2019</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>2020</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>2020</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>2020</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>2019</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>2019</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>2019</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>2020</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>2019</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>2018</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>2019</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>2019</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>2019</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
+        <v>2020</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28">
+        <v>2017</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29">
+        <v>2017</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30">
+        <v>2019</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31">
+        <v>2019</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <v>2018</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33">
+        <v>2019</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34">
+        <v>2016</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35">
+        <v>2019</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36">
+        <v>2016</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37">
+        <v>2019</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38">
+        <v>2018</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39">
+        <v>2018</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40">
+        <v>2019</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41">
+        <v>2017</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42">
+        <v>2017</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43">
+        <v>2014</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="14">
+        <v>2017</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45">
+        <v>2020</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46">
+        <v>2018</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47">
+        <v>2016</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48">
+        <v>2016</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49">
+        <v>2016</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50">
+        <v>2016</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51">
+        <v>2020</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52">
+        <v>2019</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53">
+        <v>2018</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54">
+        <v>2018</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55">
+        <v>2019</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56">
+        <v>2018</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57">
+        <v>2017</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58">
+        <v>2017</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59">
+        <v>2017</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data ĐỒ ÁN 1/data Sách thư viện.xlsx
+++ b/data ĐỒ ÁN 1/data Sách thư viện.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\DoAn1\data ĐỒ ÁN 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DoAn1\data ĐỒ ÁN 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF086225-5A2E-4773-81C3-F727D1BFFA8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="2136" yWindow="732" windowWidth="20496" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,7 +633,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,16 +769,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1054,25 +1055,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:CV104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:100" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1091,16 +1092,16 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:100" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1632,7 +1633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>31</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>43</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>44</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>45</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>46</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>47</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>48</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>49</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>50</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>51</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>52</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>53</v>
       </c>
@@ -2591,14 +2592,14 @@
       <c r="E57">
         <v>2017</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>54</v>
       </c>
@@ -2614,14 +2615,14 @@
       <c r="E58">
         <v>2017</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>55</v>
       </c>
@@ -2637,234 +2638,234 @@
       <c r="E59">
         <v>2017</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>176</v>
       </c>
       <c r="G59" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>100</v>
       </c>
